--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_FBB_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_FBB_EN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1622">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -20477,6 +20477,15 @@
   </si>
   <si>
     <t>F4_Hamburger_6_2_Y_6_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_6_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_6_2_Y_6_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_6_2_Y_3_2</t>
   </si>
 </sst>
 </file>
@@ -23088,6 +23097,122 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -23169,22 +23294,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -23197,118 +23306,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -23322,11 +23337,29 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -23355,26 +23388,50 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -23388,6 +23445,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -23400,27 +23463,15 @@
     <xf numFmtId="0" fontId="59" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="23" borderId="46" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="25" borderId="41" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -23439,57 +23490,15 @@
     <xf numFmtId="0" fontId="49" fillId="21" borderId="46" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="38" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24014,7 +24023,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24058,7 +24067,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24102,7 +24111,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24146,7 +24155,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24190,7 +24199,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24234,7 +24243,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24278,7 +24287,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24322,7 +24331,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24366,7 +24375,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24410,7 +24419,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24454,7 +24463,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24498,7 +24507,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24542,7 +24551,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24586,7 +24595,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24630,7 +24639,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24674,7 +24683,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24718,7 +24727,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24762,7 +24771,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24806,7 +24815,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24850,7 +24859,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24894,7 +24903,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24938,7 +24947,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24982,7 +24991,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25026,7 +25035,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25070,7 +25079,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25109,7 +25118,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25148,7 +25157,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25187,7 +25196,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B7204DC-B61A-46E6-84DA-915C26DF0079}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7204DC-B61A-46E6-84DA-915C26DF0079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25226,7 +25235,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25265,7 +25274,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B672F9C-357F-49E7-8098-B126AA3EEF24}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B672F9C-357F-49E7-8098-B126AA3EEF24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25385,7 +25394,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25695,7 +25704,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25962,7 +25971,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26001,7 +26010,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26040,7 +26049,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26887,25 +26896,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="454" t="s">
+      <c r="C5" s="444" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="455"/>
-      <c r="E5" s="456"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="446"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="452"/>
-      <c r="I5" s="452"/>
-      <c r="J5" s="452"/>
+      <c r="H5" s="436"/>
+      <c r="I5" s="436"/>
+      <c r="J5" s="436"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="428"/>
-      <c r="D6" s="429"/>
-      <c r="E6" s="430"/>
+      <c r="C6" s="466"/>
+      <c r="D6" s="467"/>
+      <c r="E6" s="468"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -26915,23 +26924,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="457"/>
-      <c r="D7" s="458"/>
-      <c r="E7" s="459"/>
+      <c r="C7" s="447"/>
+      <c r="D7" s="448"/>
+      <c r="E7" s="449"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="452"/>
-      <c r="I7" s="452"/>
-      <c r="J7" s="452"/>
+      <c r="H7" s="436"/>
+      <c r="I7" s="436"/>
+      <c r="J7" s="436"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="460" t="s">
+      <c r="C8" s="450" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="461"/>
-      <c r="E8" s="462"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="452"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -26954,58 +26963,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="446" t="s">
+      <c r="B11" s="437" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="447"/>
-      <c r="D11" s="453"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="448"/>
+      <c r="C11" s="438"/>
+      <c r="D11" s="439"/>
+      <c r="E11" s="439"/>
+      <c r="F11" s="440"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="439"/>
-      <c r="D12" s="441"/>
-      <c r="E12" s="441"/>
-      <c r="F12" s="442"/>
+      <c r="C12" s="441"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="442"/>
+      <c r="F12" s="443"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="439"/>
-      <c r="D13" s="441"/>
-      <c r="E13" s="441"/>
-      <c r="F13" s="442"/>
+      <c r="C13" s="441"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="442"/>
+      <c r="F13" s="443"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="439"/>
-      <c r="D14" s="441"/>
-      <c r="E14" s="441"/>
-      <c r="F14" s="442"/>
+      <c r="C14" s="441"/>
+      <c r="D14" s="442"/>
+      <c r="E14" s="442"/>
+      <c r="F14" s="443"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="439"/>
-      <c r="D15" s="441"/>
-      <c r="E15" s="441"/>
-      <c r="F15" s="442"/>
+      <c r="C15" s="441"/>
+      <c r="D15" s="442"/>
+      <c r="E15" s="442"/>
+      <c r="F15" s="443"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="443"/>
-      <c r="D16" s="444"/>
-      <c r="E16" s="444"/>
-      <c r="F16" s="445"/>
+      <c r="C16" s="477"/>
+      <c r="D16" s="478"/>
+      <c r="E16" s="478"/>
+      <c r="F16" s="479"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -27015,13 +27024,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="446" t="s">
+      <c r="B18" s="437" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="447"/>
-      <c r="D18" s="447"/>
-      <c r="E18" s="447"/>
-      <c r="F18" s="448"/>
+      <c r="C18" s="438"/>
+      <c r="D18" s="438"/>
+      <c r="E18" s="438"/>
+      <c r="F18" s="440"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -27033,10 +27042,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="434" t="s">
+      <c r="E19" s="472" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="449"/>
+      <c r="F19" s="480"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -27048,10 +27057,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="439" t="s">
+      <c r="E20" s="441" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="440"/>
+      <c r="F20" s="453"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -27061,10 +27070,10 @@
         <v>169</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="439" t="s">
+      <c r="E21" s="441" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="440"/>
+      <c r="F21" s="453"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -27074,10 +27083,10 @@
         <v>172</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="439" t="s">
+      <c r="E22" s="441" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="440"/>
+      <c r="F22" s="453"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -27087,52 +27096,52 @@
         <v>174</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="439" t="s">
+      <c r="E23" s="441" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="440"/>
+      <c r="F23" s="453"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="439"/>
-      <c r="F24" s="440"/>
+      <c r="E24" s="441"/>
+      <c r="F24" s="453"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="439"/>
-      <c r="F25" s="440"/>
+      <c r="E25" s="441"/>
+      <c r="F25" s="453"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="439"/>
-      <c r="F26" s="440"/>
+      <c r="E26" s="441"/>
+      <c r="F26" s="453"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="440"/>
+      <c r="E27" s="441"/>
+      <c r="F27" s="453"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="440"/>
+      <c r="E28" s="441"/>
+      <c r="F28" s="453"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="450"/>
-      <c r="F29" s="451"/>
+      <c r="E29" s="454"/>
+      <c r="F29" s="455"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -27142,67 +27151,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="431" t="s">
+      <c r="B31" s="469" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="432"/>
-      <c r="D31" s="432"/>
-      <c r="E31" s="433"/>
+      <c r="C31" s="470"/>
+      <c r="D31" s="470"/>
+      <c r="E31" s="471"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="434" t="s">
+      <c r="C32" s="472" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="435"/>
-      <c r="E32" s="435"/>
+      <c r="D32" s="473"/>
+      <c r="E32" s="473"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="420"/>
-      <c r="D33" s="421"/>
-      <c r="E33" s="421"/>
+      <c r="C33" s="458"/>
+      <c r="D33" s="459"/>
+      <c r="E33" s="459"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="436"/>
-      <c r="D34" s="437"/>
-      <c r="E34" s="438"/>
+      <c r="C34" s="474"/>
+      <c r="D34" s="475"/>
+      <c r="E34" s="476"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="418"/>
-      <c r="D35" s="419"/>
-      <c r="E35" s="419"/>
+      <c r="C35" s="456"/>
+      <c r="D35" s="457"/>
+      <c r="E35" s="457"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="420"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="421"/>
+      <c r="C36" s="458"/>
+      <c r="D36" s="459"/>
+      <c r="E36" s="459"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="422"/>
-      <c r="D37" s="423"/>
-      <c r="E37" s="424"/>
+      <c r="C37" s="460"/>
+      <c r="D37" s="461"/>
+      <c r="E37" s="462"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="425"/>
-      <c r="D38" s="426"/>
-      <c r="E38" s="427"/>
+      <c r="C38" s="463"/>
+      <c r="D38" s="464"/>
+      <c r="E38" s="465"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -27228,22 +27237,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -27260,6 +27253,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27326,19 +27335,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="508" t="s">
+      <c r="A2" s="528" t="s">
         <v>848</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
-      <c r="K2" s="510"/>
+      <c r="B2" s="529"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="530"/>
     </row>
     <row r="3" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="127" t="s">
@@ -27461,19 +27470,19 @@
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="508" t="s">
+      <c r="A9" s="528" t="s">
         <v>861</v>
       </c>
-      <c r="B9" s="509"/>
-      <c r="C9" s="509"/>
-      <c r="D9" s="509"/>
-      <c r="E9" s="509"/>
-      <c r="F9" s="509"/>
-      <c r="G9" s="509"/>
-      <c r="H9" s="509"/>
-      <c r="I9" s="509"/>
-      <c r="J9" s="509"/>
-      <c r="K9" s="510"/>
+      <c r="B9" s="529"/>
+      <c r="C9" s="529"/>
+      <c r="D9" s="529"/>
+      <c r="E9" s="529"/>
+      <c r="F9" s="529"/>
+      <c r="G9" s="529"/>
+      <c r="H9" s="529"/>
+      <c r="I9" s="529"/>
+      <c r="J9" s="529"/>
+      <c r="K9" s="530"/>
     </row>
     <row r="10" spans="1:12" s="278" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="127" t="s">
@@ -27585,19 +27594,19 @@
       <c r="L14" s="307"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="511" t="s">
+      <c r="A15" s="531" t="s">
         <v>872</v>
       </c>
-      <c r="B15" s="511"/>
-      <c r="C15" s="511"/>
-      <c r="D15" s="511"/>
-      <c r="E15" s="511"/>
-      <c r="F15" s="511"/>
-      <c r="G15" s="511"/>
-      <c r="H15" s="511"/>
-      <c r="I15" s="511"/>
-      <c r="J15" s="511"/>
-      <c r="K15" s="511"/>
+      <c r="B15" s="531"/>
+      <c r="C15" s="531"/>
+      <c r="D15" s="531"/>
+      <c r="E15" s="531"/>
+      <c r="F15" s="531"/>
+      <c r="G15" s="531"/>
+      <c r="H15" s="531"/>
+      <c r="I15" s="531"/>
+      <c r="J15" s="531"/>
+      <c r="K15" s="531"/>
     </row>
     <row r="16" spans="1:12" s="278" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="127" t="s">
@@ -27727,19 +27736,19 @@
       <c r="L21" s="310"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="508" t="s">
+      <c r="A22" s="528" t="s">
         <v>885</v>
       </c>
-      <c r="B22" s="509"/>
-      <c r="C22" s="509"/>
-      <c r="D22" s="509"/>
-      <c r="E22" s="509"/>
-      <c r="F22" s="509"/>
-      <c r="G22" s="509"/>
-      <c r="H22" s="509"/>
-      <c r="I22" s="509"/>
-      <c r="J22" s="509"/>
-      <c r="K22" s="510"/>
+      <c r="B22" s="529"/>
+      <c r="C22" s="529"/>
+      <c r="D22" s="529"/>
+      <c r="E22" s="529"/>
+      <c r="F22" s="529"/>
+      <c r="G22" s="529"/>
+      <c r="H22" s="529"/>
+      <c r="I22" s="529"/>
+      <c r="J22" s="529"/>
+      <c r="K22" s="530"/>
     </row>
     <row r="23" spans="1:12" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="127" t="s">
@@ -27829,19 +27838,19 @@
       <c r="L26" s="308"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="508" t="s">
+      <c r="A27" s="528" t="s">
         <v>894</v>
       </c>
-      <c r="B27" s="509"/>
-      <c r="C27" s="509"/>
-      <c r="D27" s="509"/>
-      <c r="E27" s="509"/>
-      <c r="F27" s="509"/>
-      <c r="G27" s="509"/>
-      <c r="H27" s="509"/>
-      <c r="I27" s="509"/>
-      <c r="J27" s="509"/>
-      <c r="K27" s="510"/>
+      <c r="B27" s="529"/>
+      <c r="C27" s="529"/>
+      <c r="D27" s="529"/>
+      <c r="E27" s="529"/>
+      <c r="F27" s="529"/>
+      <c r="G27" s="529"/>
+      <c r="H27" s="529"/>
+      <c r="I27" s="529"/>
+      <c r="J27" s="529"/>
+      <c r="K27" s="530"/>
     </row>
     <row r="28" spans="1:12" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="127" t="s">
@@ -28078,19 +28087,19 @@
       <c r="K38" s="306"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="508" t="s">
+      <c r="A39" s="528" t="s">
         <v>918</v>
       </c>
-      <c r="B39" s="509"/>
-      <c r="C39" s="509"/>
-      <c r="D39" s="509"/>
-      <c r="E39" s="509"/>
-      <c r="F39" s="509"/>
-      <c r="G39" s="509"/>
-      <c r="H39" s="509"/>
-      <c r="I39" s="509"/>
-      <c r="J39" s="509"/>
-      <c r="K39" s="510"/>
+      <c r="B39" s="529"/>
+      <c r="C39" s="529"/>
+      <c r="D39" s="529"/>
+      <c r="E39" s="529"/>
+      <c r="F39" s="529"/>
+      <c r="G39" s="529"/>
+      <c r="H39" s="529"/>
+      <c r="I39" s="529"/>
+      <c r="J39" s="529"/>
+      <c r="K39" s="530"/>
     </row>
     <row r="40" spans="1:11" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A40" s="127" t="s">
@@ -28370,19 +28379,19 @@
       <c r="K52" s="306"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="508" t="s">
+      <c r="A53" s="528" t="s">
         <v>942</v>
       </c>
-      <c r="B53" s="509"/>
-      <c r="C53" s="509"/>
-      <c r="D53" s="509"/>
-      <c r="E53" s="509"/>
-      <c r="F53" s="509"/>
-      <c r="G53" s="509"/>
-      <c r="H53" s="509"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="509"/>
-      <c r="K53" s="510"/>
+      <c r="B53" s="529"/>
+      <c r="C53" s="529"/>
+      <c r="D53" s="529"/>
+      <c r="E53" s="529"/>
+      <c r="F53" s="529"/>
+      <c r="G53" s="529"/>
+      <c r="H53" s="529"/>
+      <c r="I53" s="529"/>
+      <c r="J53" s="529"/>
+      <c r="K53" s="530"/>
     </row>
     <row r="54" spans="1:11" s="278" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A54" s="127" t="s">
@@ -28448,19 +28457,19 @@
       <c r="K56" s="306"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="508" t="s">
+      <c r="A57" s="528" t="s">
         <v>946</v>
       </c>
-      <c r="B57" s="509"/>
-      <c r="C57" s="509"/>
-      <c r="D57" s="509"/>
-      <c r="E57" s="509"/>
-      <c r="F57" s="509"/>
-      <c r="G57" s="509"/>
-      <c r="H57" s="509"/>
-      <c r="I57" s="509"/>
-      <c r="J57" s="509"/>
-      <c r="K57" s="510"/>
+      <c r="B57" s="529"/>
+      <c r="C57" s="529"/>
+      <c r="D57" s="529"/>
+      <c r="E57" s="529"/>
+      <c r="F57" s="529"/>
+      <c r="G57" s="529"/>
+      <c r="H57" s="529"/>
+      <c r="I57" s="529"/>
+      <c r="J57" s="529"/>
+      <c r="K57" s="530"/>
     </row>
     <row r="58" spans="1:11" s="278" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A58" s="317" t="s">
@@ -28568,19 +28577,19 @@
       <c r="K62" s="316"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="508" t="s">
+      <c r="A63" s="528" t="s">
         <v>959</v>
       </c>
-      <c r="B63" s="509"/>
-      <c r="C63" s="509"/>
-      <c r="D63" s="509"/>
-      <c r="E63" s="509"/>
-      <c r="F63" s="509"/>
-      <c r="G63" s="509"/>
-      <c r="H63" s="509"/>
-      <c r="I63" s="509"/>
-      <c r="J63" s="509"/>
-      <c r="K63" s="510"/>
+      <c r="B63" s="529"/>
+      <c r="C63" s="529"/>
+      <c r="D63" s="529"/>
+      <c r="E63" s="529"/>
+      <c r="F63" s="529"/>
+      <c r="G63" s="529"/>
+      <c r="H63" s="529"/>
+      <c r="I63" s="529"/>
+      <c r="J63" s="529"/>
+      <c r="K63" s="530"/>
     </row>
     <row r="64" spans="1:11" s="278" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A64" s="317" t="s">
@@ -32066,86 +32075,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="517" t="s">
+      <c r="A1" s="549" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="518" t="s">
+      <c r="B1" s="535" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="518" t="s">
+      <c r="C1" s="535" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="518" t="s">
+      <c r="D1" s="535" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="518" t="s">
+      <c r="E1" s="535" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="518" t="s">
+      <c r="F1" s="535" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="518" t="s">
+      <c r="G1" s="535" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="518" t="s">
+      <c r="H1" s="535" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="518" t="s">
+      <c r="I1" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="518" t="s">
+      <c r="J1" s="535" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="513" t="s">
+      <c r="K1" s="547" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="515" t="s">
+      <c r="L1" s="548" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="514"/>
-      <c r="B2" s="514"/>
-      <c r="C2" s="514"/>
-      <c r="D2" s="514"/>
-      <c r="E2" s="514"/>
-      <c r="F2" s="514"/>
-      <c r="G2" s="514"/>
-      <c r="H2" s="514"/>
-      <c r="I2" s="514"/>
-      <c r="J2" s="514"/>
-      <c r="K2" s="514"/>
-      <c r="L2" s="516"/>
+      <c r="A2" s="536"/>
+      <c r="B2" s="536"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="536"/>
+      <c r="E2" s="536"/>
+      <c r="F2" s="536"/>
+      <c r="G2" s="536"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
+      <c r="L2" s="534"/>
     </row>
     <row r="3" spans="1:12" s="166" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="521" t="s">
+      <c r="A3" s="537" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
-      <c r="J3" s="523"/>
+      <c r="B3" s="538"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
+      <c r="H3" s="538"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="539"/>
       <c r="K3" s="164"/>
       <c r="L3" s="165"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="524" t="s">
+      <c r="A4" s="540" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
-      <c r="D4" s="525"/>
-      <c r="E4" s="525"/>
-      <c r="F4" s="525"/>
-      <c r="G4" s="525"/>
-      <c r="H4" s="525"/>
-      <c r="I4" s="525"/>
-      <c r="J4" s="526"/>
+      <c r="B4" s="541"/>
+      <c r="C4" s="541"/>
+      <c r="D4" s="541"/>
+      <c r="E4" s="541"/>
+      <c r="F4" s="541"/>
+      <c r="G4" s="541"/>
+      <c r="H4" s="541"/>
+      <c r="I4" s="541"/>
+      <c r="J4" s="542"/>
       <c r="K4" s="167"/>
       <c r="L4" s="168"/>
     </row>
@@ -32293,18 +32302,18 @@
       <c r="L10" s="193"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="527" t="s">
+      <c r="A11" s="543" t="s">
         <v>482</v>
       </c>
-      <c r="B11" s="528"/>
-      <c r="C11" s="520"/>
-      <c r="D11" s="528"/>
-      <c r="E11" s="528"/>
-      <c r="F11" s="528"/>
-      <c r="G11" s="528"/>
-      <c r="H11" s="528"/>
-      <c r="I11" s="528"/>
-      <c r="J11" s="529"/>
+      <c r="B11" s="544"/>
+      <c r="C11" s="533"/>
+      <c r="D11" s="544"/>
+      <c r="E11" s="544"/>
+      <c r="F11" s="544"/>
+      <c r="G11" s="544"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="544"/>
+      <c r="J11" s="545"/>
       <c r="K11" s="194"/>
       <c r="L11" s="194"/>
     </row>
@@ -32357,18 +32366,18 @@
       <c r="L13" s="204"/>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="527" t="s">
+      <c r="A14" s="543" t="s">
         <v>492</v>
       </c>
-      <c r="B14" s="528"/>
-      <c r="C14" s="528"/>
-      <c r="D14" s="528"/>
-      <c r="E14" s="528"/>
-      <c r="F14" s="528"/>
-      <c r="G14" s="528"/>
-      <c r="H14" s="528"/>
-      <c r="I14" s="528"/>
-      <c r="J14" s="529"/>
+      <c r="B14" s="544"/>
+      <c r="C14" s="544"/>
+      <c r="D14" s="544"/>
+      <c r="E14" s="544"/>
+      <c r="F14" s="544"/>
+      <c r="G14" s="544"/>
+      <c r="H14" s="544"/>
+      <c r="I14" s="544"/>
+      <c r="J14" s="545"/>
       <c r="K14" s="203"/>
       <c r="L14" s="204"/>
     </row>
@@ -32421,18 +32430,18 @@
       <c r="L16" s="212"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="530" t="s">
+      <c r="A17" s="546" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="520"/>
-      <c r="C17" s="520"/>
-      <c r="D17" s="520"/>
-      <c r="E17" s="520"/>
-      <c r="F17" s="520"/>
-      <c r="G17" s="520"/>
-      <c r="H17" s="520"/>
-      <c r="I17" s="520"/>
-      <c r="J17" s="516"/>
+      <c r="B17" s="533"/>
+      <c r="C17" s="533"/>
+      <c r="D17" s="533"/>
+      <c r="E17" s="533"/>
+      <c r="F17" s="533"/>
+      <c r="G17" s="533"/>
+      <c r="H17" s="533"/>
+      <c r="I17" s="533"/>
+      <c r="J17" s="534"/>
       <c r="K17" s="213"/>
       <c r="L17" s="214"/>
     </row>
@@ -32703,18 +32712,18 @@
       <c r="L30" s="247"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="519" t="s">
+      <c r="A31" s="532" t="s">
         <v>382</v>
       </c>
-      <c r="B31" s="520"/>
-      <c r="C31" s="520"/>
-      <c r="D31" s="520"/>
-      <c r="E31" s="520"/>
-      <c r="F31" s="520"/>
-      <c r="G31" s="520"/>
-      <c r="H31" s="520"/>
-      <c r="I31" s="520"/>
-      <c r="J31" s="516"/>
+      <c r="B31" s="533"/>
+      <c r="C31" s="533"/>
+      <c r="D31" s="533"/>
+      <c r="E31" s="533"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="533"/>
+      <c r="H31" s="533"/>
+      <c r="I31" s="533"/>
+      <c r="J31" s="534"/>
       <c r="K31" s="248"/>
       <c r="L31" s="248"/>
     </row>
@@ -45368,6 +45377,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -45378,14 +45395,6 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46875,10 +46884,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="499" t="s">
+      <c r="A1" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="499"/>
+      <c r="B1" s="481"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -46913,250 +46922,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="482" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="500" t="s">
+      <c r="B2" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="500" t="s">
+      <c r="C2" s="482" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="503" t="s">
+      <c r="D2" s="485" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="503"/>
-      <c r="F2" s="503"/>
-      <c r="G2" s="469" t="s">
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="494" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="470"/>
-      <c r="I2" s="470"/>
-      <c r="J2" s="475"/>
-      <c r="K2" s="463" t="s">
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="496"/>
+      <c r="K2" s="512" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="463"/>
-      <c r="M2" s="469" t="s">
+      <c r="L2" s="512"/>
+      <c r="M2" s="494" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="470"/>
-      <c r="O2" s="475"/>
-      <c r="P2" s="469" t="s">
+      <c r="N2" s="495"/>
+      <c r="O2" s="496"/>
+      <c r="P2" s="494" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="475"/>
-      <c r="R2" s="469" t="s">
+      <c r="Q2" s="496"/>
+      <c r="R2" s="494" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="470"/>
-      <c r="T2" s="469" t="s">
+      <c r="S2" s="495"/>
+      <c r="T2" s="494" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="470"/>
-      <c r="V2" s="470"/>
-      <c r="W2" s="470"/>
-      <c r="X2" s="475"/>
-      <c r="Y2" s="469" t="s">
+      <c r="U2" s="495"/>
+      <c r="V2" s="495"/>
+      <c r="W2" s="495"/>
+      <c r="X2" s="496"/>
+      <c r="Y2" s="494" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="470"/>
-      <c r="AA2" s="470"/>
-      <c r="AB2" s="475"/>
-      <c r="AC2" s="484" t="s">
+      <c r="Z2" s="495"/>
+      <c r="AA2" s="495"/>
+      <c r="AB2" s="496"/>
+      <c r="AC2" s="488" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="485"/>
-      <c r="AE2" s="485"/>
-      <c r="AF2" s="494"/>
-      <c r="AG2" s="484" t="s">
+      <c r="AD2" s="489"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="504"/>
+      <c r="AG2" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="485"/>
-      <c r="AI2" s="485"/>
+      <c r="AH2" s="489"/>
+      <c r="AI2" s="489"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="501"/>
-      <c r="B3" s="501"/>
-      <c r="C3" s="501"/>
-      <c r="D3" s="503"/>
-      <c r="E3" s="503"/>
-      <c r="F3" s="503"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="472"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="463" t="s">
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="490"/>
+      <c r="H3" s="491"/>
+      <c r="I3" s="491"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="512" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="463"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="472"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="471"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="472"/>
-      <c r="T3" s="471"/>
-      <c r="U3" s="472"/>
-      <c r="V3" s="472"/>
-      <c r="W3" s="472"/>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="471"/>
-      <c r="Z3" s="472"/>
-      <c r="AA3" s="472"/>
-      <c r="AB3" s="476"/>
-      <c r="AC3" s="471"/>
-      <c r="AD3" s="472"/>
-      <c r="AE3" s="472"/>
-      <c r="AF3" s="476"/>
-      <c r="AG3" s="471"/>
-      <c r="AH3" s="472"/>
-      <c r="AI3" s="472"/>
+      <c r="L3" s="512"/>
+      <c r="M3" s="490"/>
+      <c r="N3" s="491"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="490"/>
+      <c r="Q3" s="497"/>
+      <c r="R3" s="490"/>
+      <c r="S3" s="491"/>
+      <c r="T3" s="490"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="497"/>
+      <c r="Y3" s="490"/>
+      <c r="Z3" s="491"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="497"/>
+      <c r="AC3" s="490"/>
+      <c r="AD3" s="491"/>
+      <c r="AE3" s="491"/>
+      <c r="AF3" s="497"/>
+      <c r="AG3" s="490"/>
+      <c r="AH3" s="491"/>
+      <c r="AI3" s="491"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="501"/>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="482" t="s">
+      <c r="A4" s="483"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="482" t="s">
+      <c r="E4" s="486" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="482" t="s">
+      <c r="F4" s="486" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="480" t="s">
+      <c r="G4" s="510" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="480" t="s">
+      <c r="H4" s="510" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="480" t="s">
+      <c r="I4" s="510" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="480" t="s">
+      <c r="J4" s="510" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="464" t="s">
+      <c r="K4" s="513" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="464" t="s">
+      <c r="L4" s="513" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="466" t="s">
+      <c r="M4" s="515" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="466" t="s">
+      <c r="N4" s="515" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="477" t="s">
+      <c r="O4" s="519" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="478" t="s">
+      <c r="P4" s="520" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="478" t="s">
+      <c r="Q4" s="520" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="473" t="s">
+      <c r="R4" s="517" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="473" t="s">
+      <c r="S4" s="517" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="486" t="s">
+      <c r="T4" s="492" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="497" t="s">
+      <c r="U4" s="508" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="498"/>
-      <c r="W4" s="468" t="s">
+      <c r="V4" s="509"/>
+      <c r="W4" s="507" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="468" t="s">
+      <c r="X4" s="507" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="488" t="s">
+      <c r="Y4" s="498" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="488" t="s">
+      <c r="Z4" s="498" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="492" t="s">
+      <c r="AA4" s="502" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="493"/>
-      <c r="AC4" s="490" t="s">
+      <c r="AB4" s="503"/>
+      <c r="AC4" s="500" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="490" t="s">
+      <c r="AD4" s="500" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="495" t="s">
+      <c r="AE4" s="505" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="496"/>
-      <c r="AG4" s="482" t="s">
+      <c r="AF4" s="506"/>
+      <c r="AG4" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="482" t="s">
+      <c r="AH4" s="486" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="482" t="s">
+      <c r="AI4" s="486" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="502"/>
-      <c r="B5" s="502"/>
-      <c r="C5" s="502"/>
-      <c r="D5" s="483"/>
-      <c r="E5" s="483"/>
-      <c r="F5" s="483"/>
-      <c r="G5" s="481"/>
-      <c r="H5" s="481"/>
-      <c r="I5" s="481"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="465"/>
-      <c r="M5" s="467"/>
-      <c r="N5" s="467"/>
-      <c r="O5" s="467"/>
-      <c r="P5" s="479"/>
-      <c r="Q5" s="479"/>
-      <c r="R5" s="474"/>
-      <c r="S5" s="474"/>
-      <c r="T5" s="487"/>
+      <c r="A5" s="484"/>
+      <c r="B5" s="484"/>
+      <c r="C5" s="484"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="511"/>
+      <c r="J5" s="511"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="514"/>
+      <c r="M5" s="516"/>
+      <c r="N5" s="516"/>
+      <c r="O5" s="516"/>
+      <c r="P5" s="521"/>
+      <c r="Q5" s="521"/>
+      <c r="R5" s="518"/>
+      <c r="S5" s="518"/>
+      <c r="T5" s="493"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="468"/>
-      <c r="X5" s="468"/>
-      <c r="Y5" s="489"/>
-      <c r="Z5" s="489"/>
+      <c r="W5" s="507"/>
+      <c r="X5" s="507"/>
+      <c r="Y5" s="499"/>
+      <c r="Z5" s="499"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="491"/>
-      <c r="AD5" s="491"/>
+      <c r="AC5" s="501"/>
+      <c r="AD5" s="501"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="483"/>
-      <c r="AH5" s="483"/>
-      <c r="AI5" s="483"/>
+      <c r="AG5" s="487"/>
+      <c r="AH5" s="487"/>
+      <c r="AI5" s="487"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -47419,14 +47428,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -47443,26 +47464,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47686,10 +47695,10 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="151"/>
       <c r="B14" s="159"/>
-      <c r="C14" s="504" t="s">
+      <c r="C14" s="522" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="504" t="s">
+      <c r="D14" s="522" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="154" t="s">
@@ -47702,8 +47711,8 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="151"/>
       <c r="B15" s="159"/>
-      <c r="C15" s="505"/>
-      <c r="D15" s="505"/>
+      <c r="C15" s="523"/>
+      <c r="D15" s="523"/>
       <c r="E15" s="154" t="s">
         <v>116</v>
       </c>
@@ -47714,8 +47723,8 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="151"/>
       <c r="B16" s="159"/>
-      <c r="C16" s="505"/>
-      <c r="D16" s="506"/>
+      <c r="C16" s="523"/>
+      <c r="D16" s="524"/>
       <c r="E16" s="154" t="s">
         <v>117</v>
       </c>
@@ -47724,11 +47733,11 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="151"/>
       <c r="B17" s="159"/>
-      <c r="C17" s="505"/>
-      <c r="D17" s="504" t="s">
+      <c r="C17" s="523"/>
+      <c r="D17" s="522" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="504" t="s">
+      <c r="E17" s="522" t="s">
         <v>118</v>
       </c>
       <c r="F17" s="154" t="s">
@@ -47738,9 +47747,9 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="151"/>
       <c r="B18" s="159"/>
-      <c r="C18" s="505"/>
-      <c r="D18" s="505"/>
-      <c r="E18" s="505"/>
+      <c r="C18" s="523"/>
+      <c r="D18" s="523"/>
+      <c r="E18" s="523"/>
       <c r="F18" s="154" t="s">
         <v>120</v>
       </c>
@@ -47748,9 +47757,9 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="151"/>
       <c r="B19" s="159"/>
-      <c r="C19" s="505"/>
-      <c r="D19" s="505"/>
-      <c r="E19" s="506"/>
+      <c r="C19" s="523"/>
+      <c r="D19" s="523"/>
+      <c r="E19" s="524"/>
       <c r="F19" s="154" t="s">
         <v>117</v>
       </c>
@@ -47758,9 +47767,9 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="151"/>
       <c r="B20" s="159"/>
-      <c r="C20" s="505"/>
-      <c r="D20" s="505"/>
-      <c r="E20" s="504" t="s">
+      <c r="C20" s="523"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="522" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="154" t="s">
@@ -47770,9 +47779,9 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="151"/>
       <c r="B21" s="159"/>
-      <c r="C21" s="505"/>
-      <c r="D21" s="506"/>
-      <c r="E21" s="506"/>
+      <c r="C21" s="523"/>
+      <c r="D21" s="524"/>
+      <c r="E21" s="524"/>
       <c r="F21" s="154" t="s">
         <v>122</v>
       </c>
@@ -47780,8 +47789,8 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="151"/>
       <c r="B22" s="159"/>
-      <c r="C22" s="505"/>
-      <c r="D22" s="504" t="s">
+      <c r="C22" s="523"/>
+      <c r="D22" s="522" t="s">
         <v>114</v>
       </c>
       <c r="E22" s="154" t="s">
@@ -47792,8 +47801,8 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="151"/>
       <c r="B23" s="159"/>
-      <c r="C23" s="505"/>
-      <c r="D23" s="505"/>
+      <c r="C23" s="523"/>
+      <c r="D23" s="523"/>
       <c r="E23" s="154" t="s">
         <v>124</v>
       </c>
@@ -47802,8 +47811,8 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="151"/>
       <c r="B24" s="159"/>
-      <c r="C24" s="506"/>
-      <c r="D24" s="506"/>
+      <c r="C24" s="524"/>
+      <c r="D24" s="524"/>
       <c r="E24" s="154" t="s">
         <v>125</v>
       </c>
@@ -47815,7 +47824,7 @@
       <c r="C25" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="504" t="s">
+      <c r="D25" s="522" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="154" t="s">
@@ -47827,7 +47836,7 @@
       <c r="A26" s="151"/>
       <c r="B26" s="159"/>
       <c r="C26" s="156"/>
-      <c r="D26" s="506"/>
+      <c r="D26" s="524"/>
       <c r="E26" s="154" t="s">
         <v>128</v>
       </c>
@@ -47907,7 +47916,7 @@
       <c r="A34" s="151">
         <v>7</v>
       </c>
-      <c r="B34" s="507" t="s">
+      <c r="B34" s="525" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="158" t="s">
@@ -47919,7 +47928,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="151"/>
-      <c r="B35" s="507"/>
+      <c r="B35" s="525"/>
       <c r="C35" s="162" t="s">
         <v>391</v>
       </c>
@@ -47929,7 +47938,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="151"/>
-      <c r="B36" s="507"/>
+      <c r="B36" s="525"/>
       <c r="C36" s="162" t="s">
         <v>392</v>
       </c>
@@ -47939,7 +47948,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="151"/>
-      <c r="B37" s="507"/>
+      <c r="B37" s="525"/>
       <c r="C37" s="156" t="s">
         <v>88</v>
       </c>
@@ -47949,7 +47958,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="151"/>
-      <c r="B38" s="507"/>
+      <c r="B38" s="525"/>
       <c r="C38" s="156" t="s">
         <v>89</v>
       </c>
@@ -47959,7 +47968,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="151"/>
-      <c r="B39" s="507"/>
+      <c r="B39" s="525"/>
       <c r="C39" s="156" t="s">
         <v>90</v>
       </c>
@@ -47969,7 +47978,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="151"/>
-      <c r="B40" s="507"/>
+      <c r="B40" s="525"/>
       <c r="C40" s="156" t="s">
         <v>91</v>
       </c>
@@ -47979,7 +47988,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="151"/>
-      <c r="B41" s="507"/>
+      <c r="B41" s="525"/>
       <c r="C41" s="156" t="s">
         <v>92</v>
       </c>
@@ -47989,7 +47998,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="151"/>
-      <c r="B42" s="507"/>
+      <c r="B42" s="525"/>
       <c r="C42" s="156" t="s">
         <v>93</v>
       </c>
@@ -48001,7 +48010,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="151"/>
-      <c r="B43" s="507"/>
+      <c r="B43" s="525"/>
       <c r="C43" s="161"/>
       <c r="D43" s="154" t="s">
         <v>551</v>
@@ -48011,7 +48020,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="151"/>
-      <c r="B44" s="507"/>
+      <c r="B44" s="525"/>
       <c r="C44" s="156" t="s">
         <v>94</v>
       </c>
@@ -51726,13 +51735,13 @@
       <c r="A1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="531" t="s">
+      <c r="B1" s="418" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="531" t="s">
+      <c r="C1" s="418" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="531" t="s">
+      <c r="D1" s="418" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="86" t="s">
@@ -51758,10 +51767,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="85" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="532" t="s">
+      <c r="A2" s="419" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="533"/>
+      <c r="B2" s="420"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -51773,220 +51782,220 @@
       <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="534" t="s">
+      <c r="A3" s="421" t="s">
         <v>1594</v>
       </c>
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="422" t="s">
         <v>1554</v>
       </c>
-      <c r="C3" s="536" t="s">
+      <c r="C3" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D3" s="537" t="s">
+      <c r="D3" s="424" t="s">
         <v>1556</v>
       </c>
-      <c r="E3" s="538"/>
-      <c r="F3" s="538"/>
-      <c r="G3" s="538"/>
-      <c r="H3" s="538"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="538"/>
-      <c r="K3" s="539"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
+      <c r="I3" s="425"/>
+      <c r="J3" s="425"/>
+      <c r="K3" s="426"/>
     </row>
     <row r="4" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="534" t="s">
+      <c r="A4" s="421" t="s">
         <v>1595</v>
       </c>
-      <c r="B4" s="535" t="s">
+      <c r="B4" s="422" t="s">
         <v>1557</v>
       </c>
-      <c r="C4" s="536" t="s">
+      <c r="C4" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D4" s="537" t="s">
+      <c r="D4" s="424" t="s">
         <v>1558</v>
       </c>
-      <c r="E4" s="538"/>
-      <c r="F4" s="538"/>
-      <c r="G4" s="538"/>
-      <c r="H4" s="538"/>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="539"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="425"/>
+      <c r="K4" s="426"/>
     </row>
     <row r="5" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="534" t="s">
+      <c r="A5" s="421" t="s">
         <v>1596</v>
       </c>
-      <c r="B5" s="535" t="s">
+      <c r="B5" s="422" t="s">
         <v>1559</v>
       </c>
-      <c r="C5" s="536" t="s">
+      <c r="C5" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D5" s="537" t="s">
+      <c r="D5" s="424" t="s">
         <v>1560</v>
       </c>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="538"/>
-      <c r="I5" s="538"/>
-      <c r="J5" s="538"/>
-      <c r="K5" s="539"/>
+      <c r="E5" s="425"/>
+      <c r="F5" s="425"/>
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
+      <c r="I5" s="425"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="426"/>
     </row>
     <row r="6" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="534" t="s">
+      <c r="A6" s="421" t="s">
         <v>1597</v>
       </c>
       <c r="B6" s="137" t="s">
         <v>1561</v>
       </c>
-      <c r="C6" s="536" t="s">
+      <c r="C6" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D6" s="537" t="s">
+      <c r="D6" s="424" t="s">
         <v>1562</v>
       </c>
-      <c r="E6" s="538"/>
-      <c r="F6" s="538"/>
-      <c r="G6" s="538"/>
-      <c r="H6" s="538"/>
-      <c r="I6" s="538"/>
-      <c r="J6" s="538"/>
-      <c r="K6" s="539"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="425"/>
+      <c r="G6" s="425"/>
+      <c r="H6" s="425"/>
+      <c r="I6" s="425"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="426"/>
     </row>
     <row r="7" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="534" t="s">
+      <c r="A7" s="421" t="s">
         <v>1598</v>
       </c>
       <c r="B7" s="137" t="s">
         <v>1563</v>
       </c>
-      <c r="C7" s="536" t="s">
+      <c r="C7" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D7" s="537" t="s">
+      <c r="D7" s="424" t="s">
         <v>1564</v>
       </c>
-      <c r="E7" s="538"/>
-      <c r="F7" s="538"/>
-      <c r="G7" s="538"/>
-      <c r="H7" s="538"/>
-      <c r="I7" s="538"/>
-      <c r="J7" s="538"/>
-      <c r="K7" s="539"/>
+      <c r="E7" s="425"/>
+      <c r="F7" s="425"/>
+      <c r="G7" s="425"/>
+      <c r="H7" s="425"/>
+      <c r="I7" s="425"/>
+      <c r="J7" s="425"/>
+      <c r="K7" s="426"/>
     </row>
     <row r="8" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="534" t="s">
+      <c r="A8" s="421" t="s">
         <v>1595</v>
       </c>
       <c r="B8" s="137" t="s">
         <v>1565</v>
       </c>
-      <c r="C8" s="536" t="s">
+      <c r="C8" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D8" s="537" t="s">
+      <c r="D8" s="424" t="s">
         <v>1566</v>
       </c>
-      <c r="E8" s="538"/>
-      <c r="F8" s="538"/>
-      <c r="G8" s="538"/>
-      <c r="H8" s="538"/>
-      <c r="I8" s="538"/>
-      <c r="J8" s="538"/>
-      <c r="K8" s="539"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="425"/>
+      <c r="G8" s="425"/>
+      <c r="H8" s="425"/>
+      <c r="I8" s="425"/>
+      <c r="J8" s="425"/>
+      <c r="K8" s="426"/>
     </row>
     <row r="9" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="534" t="s">
+      <c r="A9" s="421" t="s">
         <v>1599</v>
       </c>
       <c r="B9" s="137" t="s">
         <v>1567</v>
       </c>
-      <c r="C9" s="536" t="s">
+      <c r="C9" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D9" s="537" t="s">
+      <c r="D9" s="424" t="s">
         <v>1568</v>
       </c>
-      <c r="E9" s="538"/>
-      <c r="F9" s="538"/>
-      <c r="G9" s="538"/>
-      <c r="H9" s="538"/>
-      <c r="I9" s="538"/>
-      <c r="J9" s="538"/>
-      <c r="K9" s="539"/>
+      <c r="E9" s="425"/>
+      <c r="F9" s="425"/>
+      <c r="G9" s="425"/>
+      <c r="H9" s="425"/>
+      <c r="I9" s="425"/>
+      <c r="J9" s="425"/>
+      <c r="K9" s="426"/>
     </row>
     <row r="10" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="534" t="s">
+      <c r="A10" s="421" t="s">
         <v>1600</v>
       </c>
       <c r="B10" s="137" t="s">
         <v>1569</v>
       </c>
-      <c r="C10" s="536" t="s">
+      <c r="C10" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D10" s="537" t="s">
+      <c r="D10" s="424" t="s">
         <v>1570</v>
       </c>
-      <c r="E10" s="538"/>
-      <c r="F10" s="538"/>
-      <c r="G10" s="538"/>
-      <c r="H10" s="538"/>
-      <c r="I10" s="538"/>
-      <c r="J10" s="538"/>
-      <c r="K10" s="539"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="425"/>
+      <c r="G10" s="425"/>
+      <c r="H10" s="425"/>
+      <c r="I10" s="425"/>
+      <c r="J10" s="425"/>
+      <c r="K10" s="426"/>
     </row>
     <row r="11" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="534" t="s">
+      <c r="A11" s="421" t="s">
         <v>1601</v>
       </c>
       <c r="B11" s="137" t="s">
         <v>1571</v>
       </c>
-      <c r="C11" s="536" t="s">
+      <c r="C11" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D11" s="537" t="s">
+      <c r="D11" s="424" t="s">
         <v>1572</v>
       </c>
-      <c r="E11" s="538"/>
-      <c r="F11" s="538"/>
-      <c r="G11" s="538"/>
-      <c r="H11" s="538"/>
-      <c r="I11" s="538"/>
-      <c r="J11" s="538"/>
-      <c r="K11" s="539"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="425"/>
+      <c r="H11" s="425"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="426"/>
     </row>
     <row r="12" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="534" t="s">
+      <c r="A12" s="421" t="s">
         <v>1602</v>
       </c>
       <c r="B12" s="137" t="s">
         <v>1573</v>
       </c>
-      <c r="C12" s="536" t="s">
+      <c r="C12" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D12" s="537" t="s">
+      <c r="D12" s="424" t="s">
         <v>1574</v>
       </c>
-      <c r="E12" s="538"/>
-      <c r="F12" s="538"/>
-      <c r="G12" s="538"/>
-      <c r="H12" s="538"/>
-      <c r="I12" s="538"/>
-      <c r="J12" s="538"/>
-      <c r="K12" s="539"/>
+      <c r="E12" s="425"/>
+      <c r="F12" s="425"/>
+      <c r="G12" s="425"/>
+      <c r="H12" s="425"/>
+      <c r="I12" s="425"/>
+      <c r="J12" s="425"/>
+      <c r="K12" s="426"/>
     </row>
     <row r="13" spans="1:11" s="85" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="532" t="s">
+      <c r="A13" s="419" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="533"/>
+      <c r="B13" s="420"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
@@ -51998,330 +52007,330 @@
       <c r="K13" s="122"/>
     </row>
     <row r="14" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="534" t="s">
+      <c r="A14" s="421" t="s">
         <v>1603</v>
       </c>
-      <c r="B14" s="535" t="s">
+      <c r="B14" s="422" t="s">
         <v>1554</v>
       </c>
-      <c r="C14" s="536" t="s">
+      <c r="C14" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D14" s="537" t="s">
+      <c r="D14" s="424" t="s">
         <v>1575</v>
       </c>
-      <c r="E14" s="538"/>
-      <c r="F14" s="538"/>
-      <c r="G14" s="538"/>
-      <c r="H14" s="538"/>
-      <c r="I14" s="538"/>
-      <c r="J14" s="538"/>
-      <c r="K14" s="539"/>
+      <c r="E14" s="425"/>
+      <c r="F14" s="425"/>
+      <c r="G14" s="425"/>
+      <c r="H14" s="425"/>
+      <c r="I14" s="425"/>
+      <c r="J14" s="425"/>
+      <c r="K14" s="426"/>
     </row>
     <row r="15" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="534" t="s">
+      <c r="A15" s="421" t="s">
         <v>1604</v>
       </c>
-      <c r="B15" s="535" t="s">
+      <c r="B15" s="422" t="s">
         <v>1576</v>
       </c>
-      <c r="C15" s="536" t="s">
+      <c r="C15" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D15" s="537" t="s">
+      <c r="D15" s="424" t="s">
         <v>1577</v>
       </c>
-      <c r="E15" s="538"/>
-      <c r="F15" s="538"/>
-      <c r="G15" s="538"/>
-      <c r="H15" s="538"/>
-      <c r="I15" s="538"/>
-      <c r="J15" s="538"/>
-      <c r="K15" s="539"/>
+      <c r="E15" s="425"/>
+      <c r="F15" s="425"/>
+      <c r="G15" s="425"/>
+      <c r="H15" s="425"/>
+      <c r="I15" s="425"/>
+      <c r="J15" s="425"/>
+      <c r="K15" s="426"/>
     </row>
     <row r="16" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="534" t="s">
+      <c r="A16" s="421" t="s">
         <v>1605</v>
       </c>
-      <c r="B16" s="535" t="s">
+      <c r="B16" s="422" t="s">
         <v>1578</v>
       </c>
-      <c r="C16" s="536" t="s">
+      <c r="C16" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D16" s="537" t="s">
+      <c r="D16" s="424" t="s">
         <v>1579</v>
       </c>
-      <c r="E16" s="538"/>
-      <c r="F16" s="538"/>
-      <c r="G16" s="538"/>
-      <c r="H16" s="538"/>
-      <c r="I16" s="538"/>
-      <c r="J16" s="538"/>
-      <c r="K16" s="539"/>
+      <c r="E16" s="425"/>
+      <c r="F16" s="425"/>
+      <c r="G16" s="425"/>
+      <c r="H16" s="425"/>
+      <c r="I16" s="425"/>
+      <c r="J16" s="425"/>
+      <c r="K16" s="426"/>
     </row>
     <row r="17" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="534" t="s">
+      <c r="A17" s="421" t="s">
         <v>1606</v>
       </c>
       <c r="B17" s="137" t="s">
         <v>1561</v>
       </c>
-      <c r="C17" s="536" t="s">
+      <c r="C17" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D17" s="537" t="s">
+      <c r="D17" s="424" t="s">
         <v>1562</v>
       </c>
-      <c r="E17" s="538"/>
-      <c r="F17" s="538"/>
-      <c r="G17" s="538"/>
-      <c r="H17" s="538"/>
-      <c r="I17" s="538"/>
-      <c r="J17" s="538"/>
-      <c r="K17" s="539"/>
+      <c r="E17" s="425"/>
+      <c r="F17" s="425"/>
+      <c r="G17" s="425"/>
+      <c r="H17" s="425"/>
+      <c r="I17" s="425"/>
+      <c r="J17" s="425"/>
+      <c r="K17" s="426"/>
     </row>
     <row r="18" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="534" t="s">
+      <c r="A18" s="421" t="s">
         <v>1607</v>
       </c>
       <c r="B18" s="137" t="s">
         <v>1563</v>
       </c>
-      <c r="C18" s="536" t="s">
+      <c r="C18" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D18" s="537" t="s">
+      <c r="D18" s="424" t="s">
         <v>1564</v>
       </c>
-      <c r="E18" s="538"/>
-      <c r="F18" s="538"/>
-      <c r="G18" s="538"/>
-      <c r="H18" s="538"/>
-      <c r="I18" s="538"/>
-      <c r="J18" s="538"/>
-      <c r="K18" s="539"/>
+      <c r="E18" s="425"/>
+      <c r="F18" s="425"/>
+      <c r="G18" s="425"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="425"/>
+      <c r="J18" s="425"/>
+      <c r="K18" s="426"/>
     </row>
     <row r="19" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="534" t="s">
+      <c r="A19" s="421" t="s">
         <v>1604</v>
       </c>
       <c r="B19" s="137" t="s">
         <v>1565</v>
       </c>
-      <c r="C19" s="536" t="s">
+      <c r="C19" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D19" s="537" t="s">
+      <c r="D19" s="424" t="s">
         <v>1566</v>
       </c>
-      <c r="E19" s="538"/>
-      <c r="F19" s="538"/>
-      <c r="G19" s="538"/>
-      <c r="H19" s="538"/>
-      <c r="I19" s="538"/>
-      <c r="J19" s="538"/>
-      <c r="K19" s="539"/>
+      <c r="E19" s="425"/>
+      <c r="F19" s="425"/>
+      <c r="G19" s="425"/>
+      <c r="H19" s="425"/>
+      <c r="I19" s="425"/>
+      <c r="J19" s="425"/>
+      <c r="K19" s="426"/>
     </row>
     <row r="20" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="534" t="s">
+      <c r="A20" s="421" t="s">
         <v>1608</v>
       </c>
       <c r="B20" s="137" t="s">
         <v>1567</v>
       </c>
-      <c r="C20" s="536" t="s">
+      <c r="C20" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D20" s="537" t="s">
+      <c r="D20" s="424" t="s">
         <v>1568</v>
       </c>
-      <c r="E20" s="538"/>
-      <c r="F20" s="538"/>
-      <c r="G20" s="538"/>
-      <c r="H20" s="538"/>
-      <c r="I20" s="538"/>
-      <c r="J20" s="538"/>
-      <c r="K20" s="539"/>
+      <c r="E20" s="425"/>
+      <c r="F20" s="425"/>
+      <c r="G20" s="425"/>
+      <c r="H20" s="425"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="426"/>
     </row>
     <row r="21" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="534" t="s">
+      <c r="A21" s="421" t="s">
         <v>1609</v>
       </c>
       <c r="B21" s="137" t="s">
         <v>1569</v>
       </c>
-      <c r="C21" s="536" t="s">
+      <c r="C21" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D21" s="537" t="s">
+      <c r="D21" s="424" t="s">
         <v>1570</v>
       </c>
-      <c r="E21" s="538"/>
-      <c r="F21" s="538"/>
-      <c r="G21" s="538"/>
-      <c r="H21" s="538"/>
-      <c r="I21" s="538"/>
-      <c r="J21" s="538"/>
-      <c r="K21" s="539"/>
+      <c r="E21" s="425"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="425"/>
+      <c r="H21" s="425"/>
+      <c r="I21" s="425"/>
+      <c r="J21" s="425"/>
+      <c r="K21" s="426"/>
     </row>
     <row r="22" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="421" t="s">
         <v>1610</v>
       </c>
       <c r="B22" s="137" t="s">
         <v>1571</v>
       </c>
-      <c r="C22" s="536" t="s">
+      <c r="C22" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D22" s="537" t="s">
+      <c r="D22" s="424" t="s">
         <v>1580</v>
       </c>
-      <c r="E22" s="538"/>
-      <c r="F22" s="538"/>
-      <c r="G22" s="538"/>
-      <c r="H22" s="538"/>
-      <c r="I22" s="538"/>
-      <c r="J22" s="538"/>
-      <c r="K22" s="539"/>
+      <c r="E22" s="425"/>
+      <c r="F22" s="425"/>
+      <c r="G22" s="425"/>
+      <c r="H22" s="425"/>
+      <c r="I22" s="425"/>
+      <c r="J22" s="425"/>
+      <c r="K22" s="426"/>
     </row>
     <row r="23" spans="1:11" s="140" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="534" t="s">
+      <c r="A23" s="421" t="s">
         <v>1611</v>
       </c>
       <c r="B23" s="137" t="s">
         <v>1573</v>
       </c>
-      <c r="C23" s="536" t="s">
+      <c r="C23" s="423" t="s">
         <v>1555</v>
       </c>
-      <c r="D23" s="537" t="s">
+      <c r="D23" s="424" t="s">
         <v>1574</v>
       </c>
-      <c r="E23" s="538"/>
-      <c r="F23" s="538"/>
-      <c r="G23" s="538"/>
-      <c r="H23" s="538"/>
-      <c r="I23" s="538"/>
-      <c r="J23" s="538"/>
-      <c r="K23" s="539"/>
-    </row>
-    <row r="24" spans="1:11" s="543" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="540" t="s">
+      <c r="E23" s="425"/>
+      <c r="F23" s="425"/>
+      <c r="G23" s="425"/>
+      <c r="H23" s="425"/>
+      <c r="I23" s="425"/>
+      <c r="J23" s="425"/>
+      <c r="K23" s="426"/>
+    </row>
+    <row r="24" spans="1:11" s="429" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="526" t="s">
         <v>1581</v>
       </c>
-      <c r="B24" s="540"/>
-      <c r="C24" s="541"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="541"/>
-      <c r="F24" s="541"/>
-      <c r="G24" s="541"/>
-      <c r="H24" s="541"/>
-      <c r="I24" s="541"/>
-      <c r="J24" s="542"/>
-      <c r="K24" s="542"/>
-    </row>
-    <row r="25" spans="1:11" s="547" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="544" t="s">
+      <c r="B24" s="526"/>
+      <c r="C24" s="427"/>
+      <c r="D24" s="427"/>
+      <c r="E24" s="427"/>
+      <c r="F24" s="427"/>
+      <c r="G24" s="427"/>
+      <c r="H24" s="427"/>
+      <c r="I24" s="427"/>
+      <c r="J24" s="428"/>
+      <c r="K24" s="428"/>
+    </row>
+    <row r="25" spans="1:11" s="433" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="430" t="s">
         <v>1612</v>
       </c>
-      <c r="B25" s="545" t="s">
+      <c r="B25" s="431" t="s">
         <v>1582</v>
       </c>
-      <c r="C25" s="545" t="s">
+      <c r="C25" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D25" s="545" t="s">
+      <c r="D25" s="431" t="s">
         <v>1584</v>
       </c>
-      <c r="E25" s="546"/>
-      <c r="F25" s="546"/>
-      <c r="G25" s="546"/>
-      <c r="H25" s="546"/>
-      <c r="I25" s="546"/>
-      <c r="J25" s="546"/>
-      <c r="K25" s="546"/>
-    </row>
-    <row r="26" spans="1:11" s="548" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="544" t="s">
+      <c r="E25" s="432"/>
+      <c r="F25" s="432"/>
+      <c r="G25" s="432"/>
+      <c r="H25" s="432"/>
+      <c r="I25" s="432"/>
+      <c r="J25" s="432"/>
+      <c r="K25" s="432"/>
+    </row>
+    <row r="26" spans="1:11" s="434" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="430" t="s">
         <v>1613</v>
       </c>
-      <c r="B26" s="545" t="s">
+      <c r="B26" s="431" t="s">
         <v>1585</v>
       </c>
-      <c r="C26" s="545" t="s">
+      <c r="C26" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D26" s="545" t="s">
+      <c r="D26" s="431" t="s">
         <v>1586</v>
       </c>
-      <c r="E26" s="546"/>
-      <c r="F26" s="546"/>
-      <c r="G26" s="546"/>
-      <c r="H26" s="546"/>
-      <c r="I26" s="546"/>
-      <c r="J26" s="546"/>
-      <c r="K26" s="546"/>
-    </row>
-    <row r="27" spans="1:11" s="547" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="544" t="s">
+      <c r="E26" s="432"/>
+      <c r="F26" s="432"/>
+      <c r="G26" s="432"/>
+      <c r="H26" s="432"/>
+      <c r="I26" s="432"/>
+      <c r="J26" s="432"/>
+      <c r="K26" s="432"/>
+    </row>
+    <row r="27" spans="1:11" s="433" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="430" t="s">
         <v>1614</v>
       </c>
-      <c r="B27" s="545" t="s">
+      <c r="B27" s="431" t="s">
         <v>1587</v>
       </c>
-      <c r="C27" s="545" t="s">
+      <c r="C27" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D27" s="545" t="s">
+      <c r="D27" s="431" t="s">
         <v>1588</v>
       </c>
-      <c r="E27" s="546"/>
-      <c r="F27" s="546"/>
-      <c r="G27" s="546"/>
-      <c r="H27" s="546"/>
-      <c r="I27" s="546"/>
-      <c r="J27" s="546"/>
-      <c r="K27" s="546"/>
-    </row>
-    <row r="28" spans="1:11" s="549" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="549" t="s">
+      <c r="E27" s="432"/>
+      <c r="F27" s="432"/>
+      <c r="G27" s="432"/>
+      <c r="H27" s="432"/>
+      <c r="I27" s="432"/>
+      <c r="J27" s="432"/>
+      <c r="K27" s="432"/>
+    </row>
+    <row r="28" spans="1:11" s="435" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="435" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="548" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="544" t="s">
+    <row r="29" spans="1:11" s="434" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="430" t="s">
         <v>1615</v>
       </c>
-      <c r="B29" s="545" t="s">
+      <c r="B29" s="431" t="s">
         <v>1590</v>
       </c>
-      <c r="C29" s="545" t="s">
+      <c r="C29" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D29" s="545" t="s">
+      <c r="D29" s="431" t="s">
         <v>1591</v>
       </c>
-      <c r="E29" s="546"/>
-      <c r="F29" s="546"/>
-      <c r="G29" s="546"/>
-      <c r="H29" s="546"/>
-      <c r="I29" s="546"/>
-      <c r="J29" s="546"/>
-      <c r="K29" s="546"/>
-    </row>
-    <row r="30" spans="1:11" s="548" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="544" t="s">
+      <c r="E29" s="432"/>
+      <c r="F29" s="432"/>
+      <c r="G29" s="432"/>
+      <c r="H29" s="432"/>
+      <c r="I29" s="432"/>
+      <c r="J29" s="432"/>
+      <c r="K29" s="432"/>
+    </row>
+    <row r="30" spans="1:11" s="434" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="430" t="s">
         <v>1616</v>
       </c>
-      <c r="B30" s="545" t="s">
+      <c r="B30" s="431" t="s">
         <v>1592</v>
       </c>
-      <c r="C30" s="545" t="s">
+      <c r="C30" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D30" s="545" t="s">
+      <c r="D30" s="431" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -52338,8 +52347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52384,10 +52393,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="512" t="s">
+      <c r="A2" s="527" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="512"/>
+      <c r="B2" s="527"/>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
       <c r="E2" s="134"/>
@@ -52609,10 +52618,10 @@
       <c r="K12" s="138"/>
     </row>
     <row r="13" spans="1:11" s="85" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="512" t="s">
+      <c r="A13" s="527" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="512"/>
+      <c r="B13" s="527"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
@@ -52644,121 +52653,121 @@
       <c r="J14" s="138"/>
       <c r="K14" s="138"/>
     </row>
-    <row r="15" spans="1:11" s="543" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="540" t="s">
+    <row r="15" spans="1:11" s="429" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="526" t="s">
         <v>1581</v>
       </c>
-      <c r="B15" s="540"/>
-      <c r="C15" s="541"/>
-      <c r="D15" s="541"/>
-      <c r="E15" s="541"/>
-      <c r="F15" s="541"/>
-      <c r="G15" s="541"/>
-      <c r="H15" s="541"/>
-      <c r="I15" s="541"/>
-      <c r="J15" s="542"/>
-      <c r="K15" s="542"/>
-    </row>
-    <row r="16" spans="1:11" s="547" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="544" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="545" t="s">
+      <c r="B15" s="526"/>
+      <c r="C15" s="427"/>
+      <c r="D15" s="427"/>
+      <c r="E15" s="427"/>
+      <c r="F15" s="427"/>
+      <c r="G15" s="427"/>
+      <c r="H15" s="427"/>
+      <c r="I15" s="427"/>
+      <c r="J15" s="428"/>
+      <c r="K15" s="428"/>
+    </row>
+    <row r="16" spans="1:11" s="433" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="430" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B16" s="431" t="s">
         <v>1582</v>
       </c>
-      <c r="C16" s="545" t="s">
+      <c r="C16" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D16" s="545" t="s">
+      <c r="D16" s="431" t="s">
         <v>1584</v>
       </c>
-      <c r="E16" s="546"/>
-      <c r="F16" s="546"/>
-      <c r="G16" s="546"/>
-      <c r="H16" s="546"/>
-      <c r="I16" s="546"/>
-      <c r="J16" s="546"/>
-      <c r="K16" s="546"/>
-    </row>
-    <row r="17" spans="1:11" s="548" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="544" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="545" t="s">
+      <c r="E16" s="432"/>
+      <c r="F16" s="432"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="432"/>
+      <c r="I16" s="432"/>
+      <c r="J16" s="432"/>
+      <c r="K16" s="432"/>
+    </row>
+    <row r="17" spans="1:11" s="434" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="430" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B17" s="431" t="s">
         <v>1585</v>
       </c>
-      <c r="C17" s="545" t="s">
+      <c r="C17" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D17" s="545" t="s">
+      <c r="D17" s="431" t="s">
         <v>1586</v>
       </c>
-      <c r="E17" s="546"/>
-      <c r="F17" s="546"/>
-      <c r="G17" s="546"/>
-      <c r="H17" s="546"/>
-      <c r="I17" s="546"/>
-      <c r="J17" s="546"/>
-      <c r="K17" s="546"/>
-    </row>
-    <row r="18" spans="1:11" s="547" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="544" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" s="545" t="s">
+      <c r="E17" s="432"/>
+      <c r="F17" s="432"/>
+      <c r="G17" s="432"/>
+      <c r="H17" s="432"/>
+      <c r="I17" s="432"/>
+      <c r="J17" s="432"/>
+      <c r="K17" s="432"/>
+    </row>
+    <row r="18" spans="1:11" s="433" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="430" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B18" s="431" t="s">
         <v>1587</v>
       </c>
-      <c r="C18" s="545" t="s">
+      <c r="C18" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D18" s="545" t="s">
+      <c r="D18" s="431" t="s">
         <v>1588</v>
       </c>
-      <c r="E18" s="546"/>
-      <c r="F18" s="546"/>
-      <c r="G18" s="546"/>
-      <c r="H18" s="546"/>
-      <c r="I18" s="546"/>
-      <c r="J18" s="546"/>
-      <c r="K18" s="546"/>
-    </row>
-    <row r="19" spans="1:11" s="549" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="549" t="s">
+      <c r="E18" s="432"/>
+      <c r="F18" s="432"/>
+      <c r="G18" s="432"/>
+      <c r="H18" s="432"/>
+      <c r="I18" s="432"/>
+      <c r="J18" s="432"/>
+      <c r="K18" s="432"/>
+    </row>
+    <row r="19" spans="1:11" s="435" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="435" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="548" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="544" t="s">
+    <row r="20" spans="1:11" s="434" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="430" t="s">
         <v>1617</v>
       </c>
-      <c r="B20" s="545" t="s">
+      <c r="B20" s="431" t="s">
         <v>1590</v>
       </c>
-      <c r="C20" s="545" t="s">
+      <c r="C20" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D20" s="545" t="s">
+      <c r="D20" s="431" t="s">
         <v>1591</v>
       </c>
-      <c r="E20" s="546"/>
-      <c r="F20" s="546"/>
-      <c r="G20" s="546"/>
-      <c r="H20" s="546"/>
-      <c r="I20" s="546"/>
-      <c r="J20" s="546"/>
-      <c r="K20" s="546"/>
-    </row>
-    <row r="21" spans="1:11" s="548" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="544" t="s">
+      <c r="E20" s="432"/>
+      <c r="F20" s="432"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="432"/>
+      <c r="I20" s="432"/>
+      <c r="J20" s="432"/>
+      <c r="K20" s="432"/>
+    </row>
+    <row r="21" spans="1:11" s="434" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="430" t="s">
         <v>1618</v>
       </c>
-      <c r="B21" s="545" t="s">
+      <c r="B21" s="431" t="s">
         <v>1592</v>
       </c>
-      <c r="C21" s="545" t="s">
+      <c r="C21" s="431" t="s">
         <v>1583</v>
       </c>
-      <c r="D21" s="545" t="s">
+      <c r="D21" s="431" t="s">
         <v>1593</v>
       </c>
     </row>
